--- a/Pathway/Pathwayusercredtinals.xlsx
+++ b/Pathway/Pathwayusercredtinals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{544B2C0F-58BA-499E-ADB0-7030A7C2BC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB56A5D2-A6FA-4974-B44C-29FE5D36CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23280" windowHeight="13224" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>

--- a/Pathway/Pathwayusercredtinals.xlsx
+++ b/Pathway/Pathwayusercredtinals.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB56A5D2-A6FA-4974-B44C-29FE5D36CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{033C608B-6BE0-4AC7-8484-EBA0C472E315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23280" windowHeight="13224" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -40,12 +32,6 @@
     <t>Market user</t>
   </si>
   <si>
-    <t>demomu@TMobMicrowave.onmicrosoft.com </t>
-  </si>
-  <si>
-    <t>4u2change!</t>
-  </si>
-  <si>
     <t>RPM user</t>
   </si>
   <si>
@@ -83,13 +69,16 @@
   </si>
   <si>
     <t>demomo@TMobMicrowave.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Jaleel.Khan23@T-Mobile.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +101,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +134,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,7 +455,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,94 +476,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{42BA8D23-A53B-4D4D-9881-691678EEEA36}"/>
-    <hyperlink ref="B3" r:id="rId2" display="mailto:demorpm@TMobMicrowave.onmicrosoft.com" xr:uid="{F18F07C2-5BAA-4DFA-9F67-067B84B237BB}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{D8106EFF-5A65-4DD2-AE8C-CC9C22B8DBFF}"/>
-    <hyperlink ref="B4" r:id="rId4" display="mailto:demorpm@TMobMicrowave.onmicrosoft.com" xr:uid="{5FA88612-BD3B-4B58-8349-1992B2D44CAD}"/>
-    <hyperlink ref="B5" r:id="rId5" display="mailto:demonoc@TMobMicrowave.onmicrosoft.com" xr:uid="{B0C14DF9-266A-48AB-A9AC-A6207C4745B2}"/>
-    <hyperlink ref="B6" r:id="rId6" display="mailto:demore@TMobMicrowave.onmicrosoft.com" xr:uid="{CBC6E183-3023-4B17-8753-CA88D6720F32}"/>
-    <hyperlink ref="B7" r:id="rId7" display="mailto:demomd@TMobMicrowave.onmicrosoft.com" xr:uid="{B16F0C26-0EDA-415C-992B-03323A70A7DE}"/>
-    <hyperlink ref="B8" r:id="rId8" display="mailto:demomo@TMobMicrowave.onmicrosoft.com" xr:uid="{3592F752-8E5D-46D4-B97F-C3AF04481145}"/>
+    <hyperlink ref="B3" r:id="rId1" display="mailto:demorpm@TMobMicrowave.onmicrosoft.com" xr:uid="{F18F07C2-5BAA-4DFA-9F67-067B84B237BB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D8106EFF-5A65-4DD2-AE8C-CC9C22B8DBFF}"/>
+    <hyperlink ref="B4" r:id="rId3" display="mailto:demorpm@TMobMicrowave.onmicrosoft.com" xr:uid="{5FA88612-BD3B-4B58-8349-1992B2D44CAD}"/>
+    <hyperlink ref="B5" r:id="rId4" display="mailto:demonoc@TMobMicrowave.onmicrosoft.com" xr:uid="{B0C14DF9-266A-48AB-A9AC-A6207C4745B2}"/>
+    <hyperlink ref="B6" r:id="rId5" display="mailto:demore@TMobMicrowave.onmicrosoft.com" xr:uid="{CBC6E183-3023-4B17-8753-CA88D6720F32}"/>
+    <hyperlink ref="B7" r:id="rId6" display="mailto:demomd@TMobMicrowave.onmicrosoft.com" xr:uid="{B16F0C26-0EDA-415C-992B-03323A70A7DE}"/>
+    <hyperlink ref="B8" r:id="rId7" display="mailto:demomo@TMobMicrowave.onmicrosoft.com" xr:uid="{3592F752-8E5D-46D4-B97F-C3AF04481145}"/>
+    <hyperlink ref="B2" r:id="rId8" tooltip="mailto:jaleel.khan23@t-mobile.com" display="mailto:Jaleel.Khan23@T-Mobile.com" xr:uid="{4D813312-758D-42AA-9D93-06CE84867A5E}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{B4D0909C-7CAD-4053-86FB-69431AACE8BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>